--- a/Week 1/team-Ulm Protocol.xlsx
+++ b/Week 1/team-Ulm Protocol.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saiko\Documents\GitHub\Abstract\Week 1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7707C71D-06E8-4D4B-B383-F51217D37E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -56,22 +65,45 @@
   </si>
   <si>
     <t>Try to make this diagram before next meeting if anyone have time</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Optional(till now)</t>
+  </si>
+  <si>
+    <t>Combined all Requirement diagrams to one finalized Diagram</t>
+  </si>
+  <si>
+    <t>Combined all Use case  diagrams to one an finalized Diagram</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -80,7 +112,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -114,51 +146,50 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -348,28 +379,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.64453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.63"/>
-    <col customWidth="1" min="2" max="2" width="60.25"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="5" max="5" width="18.0"/>
-    <col customWidth="1" min="7" max="7" width="18.75"/>
-    <col customWidth="1" min="9" max="9" width="17.13"/>
+    <col min="1" max="1" width="17.64453125" customWidth="1"/>
+    <col min="2" max="2" width="63.703125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="7" max="7" width="18.76171875" customWidth="1"/>
+    <col min="9" max="9" width="49.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
@@ -378,7 +414,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,7 +428,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="C3" s="4" t="s">
         <v>2</v>
@@ -410,7 +446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -436,7 +472,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -453,7 +489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -470,7 +506,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -487,7 +523,146 @@
         <v>13</v>
       </c>
     </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="11">
+        <v>44666</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+      <c r="C12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>